--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H2">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N2">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q2">
-        <v>42.92601002211224</v>
+        <v>1.138249444587889</v>
       </c>
       <c r="R2">
-        <v>42.92601002211224</v>
+        <v>10.244245001291</v>
       </c>
       <c r="S2">
-        <v>0.06109746437435162</v>
+        <v>0.001221206892692021</v>
       </c>
       <c r="T2">
-        <v>0.06109746437435162</v>
+        <v>0.001221206892692021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H3">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N3">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q3">
-        <v>106.7827828041343</v>
+        <v>2.352204644916778</v>
       </c>
       <c r="R3">
-        <v>106.7827828041343</v>
+        <v>21.169841804251</v>
       </c>
       <c r="S3">
-        <v>0.1519861096992003</v>
+        <v>0.002523637098223734</v>
       </c>
       <c r="T3">
-        <v>0.1519861096992003</v>
+        <v>0.002523637098223734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H4">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N4">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q4">
-        <v>80.95822668791445</v>
+        <v>2.038600468992889</v>
       </c>
       <c r="R4">
-        <v>80.95822668791445</v>
+        <v>18.347404220936</v>
       </c>
       <c r="S4">
-        <v>0.1152294929886927</v>
+        <v>0.002187176946157582</v>
       </c>
       <c r="T4">
-        <v>0.1152294929886927</v>
+        <v>0.002187176946157582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H5">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N5">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q5">
-        <v>107.8186001068436</v>
+        <v>2.455952213993445</v>
       </c>
       <c r="R5">
-        <v>107.8186001068436</v>
+        <v>22.103569925941</v>
       </c>
       <c r="S5">
-        <v>0.1534604095635021</v>
+        <v>0.002634945956803796</v>
       </c>
       <c r="T5">
-        <v>0.1534604095635021</v>
+        <v>0.002634945956803796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H6">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N6">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O6">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P6">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q6">
-        <v>327.1477290544491</v>
+        <v>7.291640705378556</v>
       </c>
       <c r="R6">
-        <v>327.1477290544491</v>
+        <v>65.62476634840701</v>
       </c>
       <c r="S6">
-        <v>0.4656360260540867</v>
+        <v>0.007823067193910184</v>
       </c>
       <c r="T6">
-        <v>0.4656360260540867</v>
+        <v>0.007823067193910186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,793 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H7">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.67238156622638</v>
+        <v>1.828011333333333</v>
       </c>
       <c r="N7">
-        <v>1.67238156622638</v>
+        <v>5.484034</v>
       </c>
       <c r="O7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861683</v>
       </c>
       <c r="P7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861684</v>
       </c>
       <c r="Q7">
-        <v>36.94916373617992</v>
+        <v>0.8879242102997779</v>
       </c>
       <c r="R7">
-        <v>36.94916373617992</v>
+        <v>7.991317892698</v>
       </c>
       <c r="S7">
-        <v>0.05259049732016657</v>
+        <v>0.0009526375531848389</v>
       </c>
       <c r="T7">
-        <v>0.05259049732016657</v>
+        <v>0.000952637553184839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.501526</v>
+      </c>
+      <c r="I8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.030103</v>
+      </c>
+      <c r="O8">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P8">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q8">
+        <v>2.735120937464222</v>
+      </c>
+      <c r="R8">
+        <v>24.616088437178</v>
+      </c>
+      <c r="S8">
+        <v>0.002934460945321958</v>
+      </c>
+      <c r="T8">
+        <v>0.002934460945321958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.501526</v>
+      </c>
+      <c r="I9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N9">
+        <v>14.527783</v>
+      </c>
+      <c r="O9">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P9">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q9">
+        <v>5.652156655206445</v>
+      </c>
+      <c r="R9">
+        <v>50.869409896858</v>
+      </c>
+      <c r="S9">
+        <v>0.006064094912352248</v>
+      </c>
+      <c r="T9">
+        <v>0.006064094912352248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.501526</v>
+      </c>
+      <c r="I10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N10">
+        <v>12.590888</v>
+      </c>
+      <c r="O10">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P10">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q10">
+        <v>4.898591299454223</v>
+      </c>
+      <c r="R10">
+        <v>44.087321695088</v>
+      </c>
+      <c r="S10">
+        <v>0.005255608502880101</v>
+      </c>
+      <c r="T10">
+        <v>0.005255608502880101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.501526</v>
+      </c>
+      <c r="I11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N11">
+        <v>15.168553</v>
+      </c>
+      <c r="O11">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P11">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q11">
+        <v>5.901453634653111</v>
+      </c>
+      <c r="R11">
+        <v>53.113082711878</v>
+      </c>
+      <c r="S11">
+        <v>0.006331561056153264</v>
+      </c>
+      <c r="T11">
+        <v>0.006331561056153264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.501526</v>
+      </c>
+      <c r="I12">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J12">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N12">
+        <v>45.034931</v>
+      </c>
+      <c r="O12">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P12">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q12">
+        <v>17.52122020052289</v>
+      </c>
+      <c r="R12">
+        <v>157.690981804706</v>
+      </c>
+      <c r="S12">
+        <v>0.0187981948763438</v>
+      </c>
+      <c r="T12">
+        <v>0.0187981948763438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.501526</v>
+      </c>
+      <c r="I13">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J13">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.484034</v>
+      </c>
+      <c r="O13">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P13">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q13">
+        <v>2.133609737320445</v>
+      </c>
+      <c r="R13">
+        <v>19.202487635884</v>
+      </c>
+      <c r="S13">
+        <v>0.002289110642591974</v>
+      </c>
+      <c r="T13">
+        <v>0.002289110642591974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H14">
+        <v>79.065067</v>
+      </c>
+      <c r="I14">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J14">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.030103</v>
+      </c>
+      <c r="O14">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P14">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q14">
+        <v>61.75950719021122</v>
+      </c>
+      <c r="R14">
+        <v>555.8355647119009</v>
+      </c>
+      <c r="S14">
+        <v>0.06626063929005924</v>
+      </c>
+      <c r="T14">
+        <v>0.06626063929005924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H15">
+        <v>79.065067</v>
+      </c>
+      <c r="I15">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J15">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N15">
+        <v>14.527783</v>
+      </c>
+      <c r="O15">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P15">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q15">
+        <v>127.6266818062735</v>
+      </c>
+      <c r="R15">
+        <v>1148.640136256461</v>
+      </c>
+      <c r="S15">
+        <v>0.1369283194068785</v>
+      </c>
+      <c r="T15">
+        <v>0.1369283194068785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H16">
+        <v>79.065067</v>
+      </c>
+      <c r="I16">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J16">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N16">
+        <v>12.590888</v>
+      </c>
+      <c r="O16">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P16">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q16">
+        <v>110.6110448121662</v>
+      </c>
+      <c r="R16">
+        <v>995.499403309496</v>
+      </c>
+      <c r="S16">
+        <v>0.1186725554532466</v>
+      </c>
+      <c r="T16">
+        <v>0.1186725554532466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H17">
+        <v>79.065067</v>
+      </c>
+      <c r="I17">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J17">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N17">
+        <v>15.168553</v>
+      </c>
+      <c r="O17">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P17">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q17">
+        <v>133.2558510264501</v>
+      </c>
+      <c r="R17">
+        <v>1199.302659238051</v>
+      </c>
+      <c r="S17">
+        <v>0.142967751523007</v>
+      </c>
+      <c r="T17">
+        <v>0.142967751523007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H18">
+        <v>79.065067</v>
+      </c>
+      <c r="I18">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J18">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N18">
+        <v>45.034931</v>
+      </c>
+      <c r="O18">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P18">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q18">
+        <v>395.6322040950419</v>
+      </c>
+      <c r="R18">
+        <v>3560.689836855377</v>
+      </c>
+      <c r="S18">
+        <v>0.4244665147073531</v>
+      </c>
+      <c r="T18">
+        <v>0.4244665147073531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H19">
+        <v>79.065067</v>
+      </c>
+      <c r="I19">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J19">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.484034</v>
+      </c>
+      <c r="O19">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P19">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q19">
+        <v>48.17727951558645</v>
+      </c>
+      <c r="R19">
+        <v>433.595515640278</v>
+      </c>
+      <c r="S19">
+        <v>0.05168851704284002</v>
+      </c>
+      <c r="T19">
+        <v>0.05168851704284002</v>
       </c>
     </row>
   </sheetData>
